--- a/assignment_3/docs/7-segment values.xlsx
+++ b/assignment_3/docs/7-segment values.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://viaucdk-my.sharepoint.com/personal/273962_viauc_dk/Documents/Software/7. Semester/HWP1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob\Documents\Github\HardwareProgramming\assignment_3\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{99AECA5F-496A-4FFF-B3A4-19070BEE58E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F619E4C4-00B0-4EC8-BAF8-BD9F4C508552}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21804E75-D3C5-4317-AEB6-26018E07643F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F525C4D2-DD5E-470E-8CBE-5AFE3659AD46}"/>
+    <workbookView xWindow="-21720" yWindow="-2580" windowWidth="21840" windowHeight="38040" xr2:uid="{F525C4D2-DD5E-470E-8CBE-5AFE3659AD46}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>a</t>
   </si>
@@ -92,6 +92,27 @@
   </si>
   <si>
     <t>0x19</t>
+  </si>
+  <si>
+    <t>0x11</t>
+  </si>
+  <si>
+    <t>0x83</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>0x61</t>
   </si>
 </sst>
 </file>
@@ -505,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE0734A-C360-412B-BA17-BD919E27BCBB}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -863,6 +884,134 @@
         <v>18</v>
       </c>
     </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
